--- a/xlsx/聯邦調查局_intext.xlsx
+++ b/xlsx/聯邦調查局_intext.xlsx
@@ -3246,7 +3246,7 @@
         <v>94</v>
       </c>
       <c r="G47" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H47" t="s">
         <v>4</v>
@@ -3275,7 +3275,7 @@
         <v>96</v>
       </c>
       <c r="G48" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H48" t="s">
         <v>4</v>
@@ -3304,7 +3304,7 @@
         <v>98</v>
       </c>
       <c r="G49" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H49" t="s">
         <v>4</v>
@@ -3333,7 +3333,7 @@
         <v>100</v>
       </c>
       <c r="G50" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H50" t="s">
         <v>4</v>
@@ -3391,7 +3391,7 @@
         <v>104</v>
       </c>
       <c r="G52" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H52" t="s">
         <v>4</v>
@@ -3420,7 +3420,7 @@
         <v>106</v>
       </c>
       <c r="G53" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H53" t="s">
         <v>4</v>
